--- a/condicionales.xlsx
+++ b/condicionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstaffolani\Desktop\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7296EF75-A785-43EE-A11A-89C91945C0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C9594-B717-4C54-A767-D239611A475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F24D419-6351-49D0-9F46-CC25F658EA00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2784FDD-D670-4CC9-8FD3-538CDC5E4A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Regla</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Activa</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>aplicar_canalizador_localidad</t>
+  </si>
+  <si>
+    <t>aplicar_canalizador_provincia</t>
   </si>
 </sst>
 </file>
@@ -440,17 +449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AE9CFB-63DE-4C02-AEAA-63EDD7CE8B56}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746E806A-40AE-4DE5-99F6-87F739080711}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -469,12 +477,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -549,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -557,20 +565,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/condicionales.xlsx
+++ b/condicionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstaffolani\Desktop\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C9594-B717-4C54-A767-D239611A475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B4DB9D-4216-4F04-B5CE-BD920AEC1625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2784FDD-D670-4CC9-8FD3-538CDC5E4A22}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Regla</t>
   </si>
@@ -81,10 +81,43 @@
     <t>si</t>
   </si>
   <si>
-    <t>aplicar_canalizador_localidad</t>
-  </si>
-  <si>
-    <t>aplicar_canalizador_provincia</t>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Si Es Envio Y Contiene Onetto "Hora Hasta" 1100</t>
+  </si>
+  <si>
+    <t>Se Borran Clientes</t>
+  </si>
+  <si>
+    <t>Cliente Centralab Y Direccion Vega = Ruta 1 En Columna "S"</t>
+  </si>
+  <si>
+    <t>Cliente Inaer Y Direccion Arenales = Ruta 2 En Columna "S"</t>
+  </si>
+  <si>
+    <t>Cliente Maffei Y Direccion Cerviño = Ruta 3 En Columna "S"</t>
+  </si>
+  <si>
+    <t>Columna "I" &gt;= A 14Hs Y Es Capital Federal, 502 En Columna "S"</t>
+  </si>
+  <si>
+    <t>Borra Archivos En Formato "Mhtml"</t>
+  </si>
+  <si>
+    <t>Borra Archivos En Formato "Xlsx"</t>
+  </si>
+  <si>
+    <t>Direcciones Que Sean Iriarte 3070 Se Eliminan</t>
+  </si>
+  <si>
+    <t>Corrige Direcciones exceptuando LA PLATA</t>
+  </si>
+  <si>
+    <t>Lo Que Es En Capital Federal Y Cliente Gobierno, 600 "S"</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -450,152 +483,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746E806A-40AE-4DE5-99F6-87F739080711}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="54.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/condicionales.xlsx
+++ b/condicionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstaffolani\Desktop\SALUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B4DB9D-4216-4F04-B5CE-BD920AEC1625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5EF48E-24ED-46F7-A73C-334B48938853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2784FDD-D670-4CC9-8FD3-538CDC5E4A22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2784FDD-D670-4CC9-8FD3-538CDC5E4A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Regla</t>
   </si>
@@ -81,43 +84,13 @@
     <t>si</t>
   </si>
   <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>Si Es Envio Y Contiene Onetto "Hora Hasta" 1100</t>
-  </si>
-  <si>
-    <t>Se Borran Clientes</t>
-  </si>
-  <si>
-    <t>Cliente Centralab Y Direccion Vega = Ruta 1 En Columna "S"</t>
-  </si>
-  <si>
-    <t>Cliente Inaer Y Direccion Arenales = Ruta 2 En Columna "S"</t>
-  </si>
-  <si>
-    <t>Cliente Maffei Y Direccion Cerviño = Ruta 3 En Columna "S"</t>
-  </si>
-  <si>
-    <t>Columna "I" &gt;= A 14Hs Y Es Capital Federal, 502 En Columna "S"</t>
-  </si>
-  <si>
-    <t>Borra Archivos En Formato "Mhtml"</t>
-  </si>
-  <si>
-    <t>Borra Archivos En Formato "Xlsx"</t>
-  </si>
-  <si>
-    <t>Direcciones Que Sean Iriarte 3070 Se Eliminan</t>
-  </si>
-  <si>
-    <t>Corrige Direcciones exceptuando LA PLATA</t>
-  </si>
-  <si>
-    <t>Lo Que Es En Capital Federal Y Cliente Gobierno, 600 "S"</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>aplicar_canalizador_localidad</t>
+  </si>
+  <si>
+    <t>aplicar_canalizador_provincia</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -187,9 +160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,190 +456,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746E806A-40AE-4DE5-99F6-87F739080711}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/condicionales.xlsx
+++ b/condicionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\SALUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstaffolani\Desktop\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5EF48E-24ED-46F7-A73C-334B48938853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E47E7D-498F-444A-99B7-59460E5B2DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2784FDD-D670-4CC9-8FD3-538CDC5E4A22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2784FDD-D670-4CC9-8FD3-538CDC5E4A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -160,9 +157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +197,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,15 +456,15 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -483,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -491,7 +488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -499,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -507,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -515,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -523,7 +520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -531,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -539,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -547,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -555,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -563,15 +560,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -579,7 +576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -587,7 +584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -595,7 +592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>

--- a/condicionales.xlsx
+++ b/condicionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstaffolani\Desktop\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E47E7D-498F-444A-99B7-59460E5B2DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813D446D-36D0-49C8-8523-18AB42D4CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2784FDD-D670-4CC9-8FD3-538CDC5E4A22}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Regla</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>aplicar_rutas_red_diameld</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746E806A-40AE-4DE5-99F6-87F739080711}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,6 +603,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
